--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4143919.274781293</v>
+        <v>4141351.953473702</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205914</v>
+        <v>9964927.035287922</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431059</v>
+        <v>430763.7823717232</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7217218.223457729</v>
+        <v>7217371.228995722</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>55.26415070158622</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.8683972746516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>96.4836725509852</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.5756411391281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301257</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>42.14043765204845</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>195.6189629518008</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>105.3798824585327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.749532638427066</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081971</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561458</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>91.23885045891042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>33.97895442578996</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108365</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081971</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561458</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.27179222793316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108365</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>175.9511336820691</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081953</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>88.01811285914822</v>
       </c>
       <c r="H25" t="n">
-        <v>131.6267707433234</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>105.3798824585225</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.6231179274732</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>13.85794957155431</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>105.3798824585225</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.272790488244789</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>105.3798824585225</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T36" t="n">
         <v>188.3907690366107</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>89.5340822374434</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>64.44601915223836</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H38" t="n">
-        <v>283.563092004544</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081895</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.197056837474</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.0240632056144</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952159</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3907690366106</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
         <v>225.7492064608734</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>9.434273714518245</v>
+        <v>20.38088071884254</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919538</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440862</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108297</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584587</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627617</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3755,7 +3755,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.563092004544</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081895</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.197056837474</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.0240632056144</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952159</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3907690366106</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
         <v>225.7492064608734</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>64.44601915225282</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108297</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584587</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627617</v>
+        <v>152.6094296705432</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428202</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>106.9764711655038</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.3850306156796</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>516.422513675268</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>516.422513675268</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>130.6342610770237</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>123.6887603278202</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>109.7653562664111</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>109.7653562664111</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.5043404946649</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.061315312042</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>962.0987983716307</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>962.0987983716307</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>576.3105457733864</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>165.3246409837788</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>151.4012369223697</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>151.4012369223697</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.5980335608502</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5051,13 +5051,13 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q11" t="n">
         <v>4566.333620403613</v>
@@ -5127,19 +5127,19 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.935879695572</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.7441797778398</v>
+        <v>699.9418468488439</v>
       </c>
       <c r="C13" t="n">
-        <v>507.8079968499329</v>
+        <v>699.9418468488439</v>
       </c>
       <c r="D13" t="n">
-        <v>507.8079968499329</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E13" t="n">
-        <v>507.8079968499329</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F13" t="n">
-        <v>360.9180493520225</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5242,7 +5242,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778398</v>
+        <v>699.9418468488439</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160704</v>
@@ -5276,16 +5276,16 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015205</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
         <v>2971.583449151121</v>
@@ -5352,31 +5352,31 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="K15" t="n">
-        <v>302.0892292003568</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L15" t="n">
-        <v>792.8215620441082</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M15" t="n">
-        <v>1384.839916296236</v>
+        <v>1508.146810385368</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695572</v>
+        <v>2130.242773784704</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5413,22 +5413,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7382956495174</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F16" t="n">
-        <v>93.84834815160704</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160704</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160704</v>
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963572</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127628</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507196</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
-        <v>842.974607438401</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.29390929498</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234017</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151122</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.44548561026</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q17" t="n">
         <v>4566.333620403614</v>
@@ -5558,7 +5558,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>94.88738072612955</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>94.88738072612955</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K18" t="n">
-        <v>94.88738072612955</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L18" t="n">
-        <v>107.3505653988775</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M18" t="n">
-        <v>699.3689196510046</v>
+        <v>1016.375444967094</v>
       </c>
       <c r="N18" t="n">
-        <v>1321.46488305034</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O18" t="n">
-        <v>1868.341358050534</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P18" t="n">
         <v>2287.924876476609</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149475983</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C19" t="n">
-        <v>402.9352599385978</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D19" t="n">
-        <v>402.9352599385978</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411608</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948582</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139317</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931024</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946053</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782258</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335693</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294194</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033124</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747506</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062233</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856346</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819385</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213681</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.744179777838</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160688</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507195</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384009</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944175</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883212</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800318</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259455</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946803</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052809</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034528</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K21" t="n">
-        <v>302.0892292003589</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L21" t="n">
-        <v>792.8215620441098</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M21" t="n">
-        <v>1384.839916296237</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695573</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695766</v>
+        <v>2202.671267137408</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149475983</v>
+        <v>727.0053128151812</v>
       </c>
       <c r="C22" t="n">
-        <v>495.0957149475983</v>
+        <v>558.0691298872744</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9524904749385</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9524904749385</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F22" t="n">
         <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411608</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948582</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139317</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931024</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946053</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782258</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335693</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294194</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033124</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747506</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062233</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856346</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819385</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213681</v>
+        <v>947.7978919587114</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.744179777838</v>
+        <v>727.0053128151812</v>
       </c>
     </row>
     <row r="23">
@@ -5975,46 +5975,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127624</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160687</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507203</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384027</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944178</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883216</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6060,34 +6060,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L24" t="n">
-        <v>584.5806809953589</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.599035247487</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N24" t="n">
-        <v>1798.694998646824</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.571473647019</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599891002</v>
+        <v>723.0852658456174</v>
       </c>
       <c r="C25" t="n">
-        <v>394.0188770611933</v>
+        <v>554.1490829177105</v>
       </c>
       <c r="D25" t="n">
-        <v>394.0188770611933</v>
+        <v>554.1490829177105</v>
       </c>
       <c r="E25" t="n">
-        <v>394.0188770611933</v>
+        <v>554.1490829177105</v>
       </c>
       <c r="F25" t="n">
-        <v>394.0188770611933</v>
+        <v>407.2591354198001</v>
       </c>
       <c r="G25" t="n">
-        <v>226.8046822357721</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
         <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335696</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335696</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074626</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789008</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103735</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897848</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860887</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>965.39610396287</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193399</v>
+        <v>904.7337306758571</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.275713812764</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160784</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>424.1437450015443</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892236</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294995</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234029</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151131</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610266</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
         <v>4606.950144347201</v>
@@ -6257,19 +6257,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6279,61 +6279,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F27" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160706</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J27" t="n">
-        <v>241.496329903452</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="K27" t="n">
-        <v>572.005072466809</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="L27" t="n">
-        <v>792.8215620441169</v>
+        <v>107.3505653988748</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296242</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695575</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695767</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695767</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6345,7 +6345,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149475898</v>
+        <v>552.5703416234767</v>
       </c>
       <c r="C28" t="n">
-        <v>495.0957149475898</v>
+        <v>383.6341586955698</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6513892319105</v>
+        <v>383.6341586955698</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7382956495174</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160706</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160706</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411603</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033116</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747498</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062225</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856338</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819377</v>
+        <v>1183.000936495264</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213597</v>
+        <v>955.0113855972465</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778296</v>
+        <v>734.2188064537164</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,43 +6449,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160626</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507175</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074383968</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944168</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883202</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800304</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259439</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946784</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052789</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
         <v>4606.9501443472</v>
@@ -6516,61 +6516,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C30" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D30" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F30" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K30" t="n">
-        <v>302.089229200368</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L30" t="n">
-        <v>792.8215620441169</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296242</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695575</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695767</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695767</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S30" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U30" t="n">
         <v>2016.877442379908</v>
@@ -6582,7 +6582,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.876178449477</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149475898</v>
+        <v>662.7462509176839</v>
       </c>
       <c r="C31" t="n">
-        <v>495.0957149475898</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160704</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033116</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747498</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062225</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856338</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819377</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213597</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778296</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160626</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507175</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074383968</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944168</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883202</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800304</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259439</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946784</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052789</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
         <v>4606.9501443472</v>
@@ -6753,61 +6753,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C33" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D33" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E33" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F33" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034519</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K33" t="n">
-        <v>572.005072466809</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310558</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562683</v>
+        <v>1016.375444967093</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.851722962016</v>
+        <v>1638.471408366429</v>
       </c>
       <c r="O33" t="n">
-        <v>2323.251080710521</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710521</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S33" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U33" t="n">
         <v>2016.877442379908</v>
@@ -6819,7 +6819,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.876178449477</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149475898</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149475898</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D34" t="n">
-        <v>495.0957149475898</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="E34" t="n">
-        <v>347.1826213651967</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F34" t="n">
-        <v>200.2926738672864</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033116</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747498</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062225</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856338</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.526309819377</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213597</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778296</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,46 +6923,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892195</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
@@ -6974,13 +6974,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,61 +6990,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C36" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F36" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>584.5806809953565</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.755759562691</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N36" t="n">
-        <v>2276.851722962027</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O36" t="n">
-        <v>2323.251080710519</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S36" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U36" t="n">
         <v>2016.877442379908</v>
@@ -7056,7 +7056,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y36" t="n">
         <v>1111.876178449477</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="E37" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="F37" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="G37" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890957</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284207</v>
@@ -7160,43 +7160,43 @@
         <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.258820896355</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127615</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160589</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507225</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384082</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944188</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.49894988323</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800342</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259485</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.7514342976</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.33362040361</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
         <v>4606.9501443472</v>
@@ -7205,13 +7205,13 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132382</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
         <v>3095.000365871303</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294084</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482814</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870301</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0359474815747</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.5013895084596</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683892</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149684</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L39" t="n">
-        <v>424.3570907149684</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.3754449671</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N39" t="n">
-        <v>1638.47140836644</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>2185.347883366639</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
         <v>2553.812354695766</v>
@@ -7284,7 +7284,7 @@
         <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.877442379907</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
         <v>1781.725334148165</v>
@@ -7296,7 +7296,7 @@
         <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.876178449476</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476146</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>485.5661455390103</v>
+        <v>474.508966746749</v>
       </c>
       <c r="D40" t="n">
-        <v>485.5661455390103</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E40" t="n">
-        <v>485.5661455390103</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F40" t="n">
-        <v>485.5661455390103</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135892</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520198</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411618</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117271</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948632</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139325</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931034</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946065</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782271</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335708</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.55315429421</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033141</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747523</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062249</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856363</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819402</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213845</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778544</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
         <v>1949.298676890958</v>
@@ -7403,40 +7403,40 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160814</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1437450014852</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287891708</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.29390929495</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471233993</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151105</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610248</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.7514342976</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.33362040361</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7451,10 +7451,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294084</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482814</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870301</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815747</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084596</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683892</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160701</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L42" t="n">
-        <v>562.2602880588466</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M42" t="n">
-        <v>1154.278642310978</v>
+        <v>1508.146810385368</v>
       </c>
       <c r="N42" t="n">
-        <v>1776.374605710319</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O42" t="n">
-        <v>2323.251080710517</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710517</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7521,7 +7521,7 @@
         <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.877442379907</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
         <v>1781.725334148165</v>
@@ -7533,7 +7533,7 @@
         <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.876178449476</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476146</v>
+        <v>788.6131090700806</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320197077</v>
+        <v>788.6131090700806</v>
       </c>
       <c r="D43" t="n">
-        <v>326.1595320197077</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="E43" t="n">
-        <v>326.1595320197077</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F43" t="n">
-        <v>326.1595320197077</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G43" t="n">
-        <v>158.9453371942866</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411618</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117271</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948632</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139325</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931034</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946065</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782271</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335708</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.55315429421</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033141</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747523</v>
+        <v>2024.232024971971</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062249</v>
+        <v>1735.155811286698</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856363</v>
+        <v>1480.471323080811</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819402</v>
+        <v>1191.05415304385</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213845</v>
+        <v>1191.05415304385</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778544</v>
+        <v>970.2615739003203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148068</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112159</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798343</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814816</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003546</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391034</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.8059044336479</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2713464605329</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160701</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160701</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L45" t="n">
-        <v>119.3219818740134</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M45" t="n">
-        <v>716.7004695005653</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055172</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.208163294459</v>
+        <v>2202.671267137407</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372036</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166503</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437067</v>
+        <v>641.7231615721702</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157998</v>
+        <v>641.7231615721702</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157998</v>
+        <v>491.6065221598345</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157998</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157998</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306798</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1561.570926480918</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1272.153756443957</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174766</v>
+        <v>1044.16420554594</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739464</v>
+        <v>823.3716264024099</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782909079</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782909557</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R20" t="n">
-        <v>51.3126478290948</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.3126478290842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782911722</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782911694</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782911694</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.31264782911234</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>51.31264782905339</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>51.31264782905208</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4016152251185</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.96569040029397</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>61.86693864009517</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>138.7044571535268</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>76.00797063971741</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>112.4550082207792</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440908</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>62.34368079027919</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440908</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>49.75852170696803</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.52394001801871</v>
       </c>
       <c r="H25" t="n">
-        <v>8.82721904863044</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440896</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108348</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>43.23559055968983</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>56.8998804091178</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>165.974030610383</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.23559055968983</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.8045767444093</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>165.974030610383</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>60.16217041864439</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.8045767444093</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>56.89988040912577</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>157.8125473841096</v>
+        <v>146.8659403797853</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>76.00797063970096</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440862</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>64.87256479221861</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194184</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>145.1611721583242</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609284.5696440729</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609284.5696440729</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609284.5696440729</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609284.5696440728</v>
+        <v>609284.5696440729</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609284.5696440726</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609284.5696440726</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609019.6135575785</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>806682.9771185591</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="F2" t="n">
         <v>806682.9771185591</v>
       </c>
       <c r="G2" t="n">
-        <v>806682.9771185589</v>
+        <v>806682.9771185591</v>
       </c>
       <c r="H2" t="n">
         <v>806682.9771185589</v>
@@ -26335,10 +26335,10 @@
         <v>806682.9771185588</v>
       </c>
       <c r="J2" t="n">
-        <v>806682.9771185592</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="K2" t="n">
-        <v>806682.9771185591</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="L2" t="n">
         <v>806682.9771185592</v>
@@ -26347,13 +26347,13 @@
         <v>806682.9771185588</v>
       </c>
       <c r="N2" t="n">
-        <v>806682.9771185599</v>
+        <v>806682.9771185592</v>
       </c>
       <c r="O2" t="n">
-        <v>806682.97711856</v>
+        <v>806682.9771185589</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>806682.9771185591</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.540397761345957e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925885</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901408</v>
+        <v>124307.2113901344</v>
       </c>
       <c r="N3" t="n">
-        <v>5.022695404477417e-09</v>
+        <v>2.825266165018547e-09</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.13257494794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>5069.915760662892</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5069.915760662914</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5069.915760662923</v>
+      </c>
+      <c r="H4" t="n">
         <v>5069.915760662903</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>5069.915760662903</v>
+      </c>
+      <c r="J4" t="n">
         <v>5069.915760662921</v>
       </c>
-      <c r="G4" t="n">
-        <v>5069.915760662971</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5069.915760662961</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5069.915760662836</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5069.915760663231</v>
-      </c>
       <c r="K4" t="n">
-        <v>5069.915760663227</v>
+        <v>5069.915760662969</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.915760663227</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760663172</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662401</v>
+        <v>5069.915760662963</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662452</v>
+        <v>5069.91576066292</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662916</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="K5" t="n">
         <v>100930.0394572385</v>
       </c>
-      <c r="K5" t="n">
-        <v>100930.0394572384</v>
-      </c>
       <c r="L5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572387</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572387</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43991.78380610058</v>
+        <v>-43991.78380610034</v>
       </c>
       <c r="C6" t="n">
         <v>545976.0954084439</v>
       </c>
       <c r="D6" t="n">
-        <v>545976.0954084442</v>
+        <v>545976.0954084439</v>
       </c>
       <c r="E6" t="n">
-        <v>-235826.6435538546</v>
+        <v>-235862.5405357193</v>
       </c>
       <c r="F6" t="n">
-        <v>700683.0219006577</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="G6" t="n">
-        <v>700683.0219006584</v>
+        <v>700647.1249187933</v>
       </c>
       <c r="H6" t="n">
-        <v>700683.0219006574</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="I6" t="n">
-        <v>700683.0219006559</v>
+        <v>700647.1249187931</v>
       </c>
       <c r="J6" t="n">
-        <v>524259.802708069</v>
+        <v>524223.9057262001</v>
       </c>
       <c r="K6" t="n">
-        <v>700683.0219006574</v>
+        <v>700647.1249187931</v>
       </c>
       <c r="L6" t="n">
-        <v>700683.0219006576</v>
+        <v>700647.1249187934</v>
       </c>
       <c r="M6" t="n">
-        <v>576375.8105105166</v>
+        <v>576339.9135286583</v>
       </c>
       <c r="N6" t="n">
-        <v>700683.0219006538</v>
+        <v>700647.1249187905</v>
       </c>
       <c r="O6" t="n">
-        <v>700683.021900659</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="P6" t="n">
-        <v>694930.2079757302</v>
+        <v>700647.1249187933</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26750,34 +26750,34 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
+        <v>1358.041048716382</v>
+      </c>
+      <c r="N3" t="n">
         <v>1358.041048716386</v>
       </c>
-      <c r="N3" t="n">
-        <v>1358.041048716393</v>
-      </c>
       <c r="O3" t="n">
-        <v>1358.041048716393</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.782262518915729e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.229594535194337e-12</v>
+        <v>-3.15834851162864e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625280872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27021,7 +27021,7 @@
         <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.817079140532</v>
+        <v>498.8170791405327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>96.66716554327502</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.71625607744321</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>55.44764369387605</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.00901221296667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834337</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212929</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,22 +31847,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>467.4901056247181</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>454.0288679183415</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,13 +32072,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>301.871095648389</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377422</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122278</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704058</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874061</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830426</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364258</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293302</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229601</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086946</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687518</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148603</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.942898598716</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854256</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665718</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901936</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540903</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088188</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.571907853053</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>151.1434552068923</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504295</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927632</v>
+        <v>439.5128616623689</v>
       </c>
       <c r="O18" t="n">
-        <v>694.99672424262</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.796143198245</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286949</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436712</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862156</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013753</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291841</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548566</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284921</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900884</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640616</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265019</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416872</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.144626646596</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282422</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561741</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851325</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704642</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377422</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122278</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704058</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874061</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830426</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364258</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293302</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229601</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086946</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687518</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148603</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.942898598716</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854256</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665718</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901936</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540903</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088188</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735816</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>199.0463877591127</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.243604874572</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504295</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.99672424262</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>220.0891643226145</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862156</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013753</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291841</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548566</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284921</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900884</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640616</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265019</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416872</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.144626646596</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282422</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561741</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851325</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704642</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.45946150237743</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122287</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874068</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830436</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.543971036427</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293317</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229616</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.857844208696</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.077388368753</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148611</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987166</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665721</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901943</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.243604874573</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504307</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927643</v>
+        <v>277.6708512781339</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426211</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>344.3187317059942</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862164</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
         <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291845</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548569</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284932</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640621</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265025</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416877</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465965</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282426</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561744</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851332</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293272</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.8987927266571</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735807</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848206</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>361.6013389488721</v>
+        <v>151.1434552068895</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426179</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308818</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>348.1857632660367</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426179</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086214</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308818</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735807</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848206</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745701</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>189.4642825742478</v>
+        <v>607.6782885548998</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286938</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086214</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>293.7647843155174</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O36" t="n">
-        <v>189.4642825742344</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377455</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122313</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>210.475889570407</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687409</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830469</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364311</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293361</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229661</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442087003</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687567</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148639</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987182</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854264</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665732</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901964</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540921</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088206</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>471.688653684825</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504342</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.721473092768</v>
+        <v>636.218582673967</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>506.1607420902164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086219</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821099</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013765</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291856</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548579</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284966</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273342</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900901</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640638</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265043</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416895</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465981</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.186526428244</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561754</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860865</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851351</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551975</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.133577808070465</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377455</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122313</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>210.475889570407</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687409</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830469</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364311</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293361</v>
+        <v>958.6336695293309</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229661</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442087003</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687567</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148639</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987182</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854264</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665732</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901964</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540921</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088206</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>611.6977534235506</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504342</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.721473092768</v>
+        <v>366.5958444985328</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286973</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086219</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821099</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013765</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291856</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548579</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284966</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273342</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900901</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640638</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265043</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416895</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465981</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.186526428244</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561754</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860865</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851351</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551975</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.133577808070465</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338201</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>220.0891643226154</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
         <v>689.7596327870085</v>
@@ -35428,7 +35428,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R11" t="n">
         <v>127.3573607845842</v>
@@ -35495,22 +35495,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>325.3560717026998</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>320.0544605040112</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380626</v>
@@ -35656,7 +35656,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O14" t="n">
         <v>689.7596327870085</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>159.2748512039446</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607198</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.374125038062</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>677.0902038955342</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020575</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263691</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870078</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134823</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404107</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845839</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053036</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>12.58907542701814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284113</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094299</v>
+        <v>308.1711495790356</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981755</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839147</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426734</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
-        <v>35.68303457970728</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066038</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642055</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243777</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883425</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209157</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606357</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931357</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607198</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.374125038062</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664386</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020575</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263691</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870078</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134823</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404107</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136787</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069149</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20494878475366</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946979</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284113</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094299</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981755</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>86.11475690828422</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066038</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642055</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243777</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883425</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209157</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606357</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931357</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607205</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.374125038063</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664397</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020589</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554549</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870092</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134835</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404115</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845844</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946988</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284124</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.379761009431</v>
+        <v>146.3291391948006</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981767</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>210.3443242916639</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066064</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243782</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883431</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209163</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606362</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931361</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>333.6317139898356</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664359</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263662</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134798</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J27" t="n">
-        <v>149.139375506914</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104616</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>223.0469591689979</v>
+        <v>12.5890754270153</v>
       </c>
       <c r="M27" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981735</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606346</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664359</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020545</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404089</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136998</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>210.3443242916777</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094276</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981735</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-5.056735899092393e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664359</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020545</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404089</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136998</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.139375506914</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104616</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946959</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>46.86803812980332</v>
+        <v>465.0820441104554</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426723</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-3.635650427572193e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671726</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>151.6307503934991</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O36" t="n">
-        <v>46.86803812978999</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607227</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380663</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664438</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020634</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263753</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870135</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>605.1570404425405</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404144</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.357360784586</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.847214710466</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284158</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094347</v>
+        <v>504.8768705906338</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981798</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>372.1863346758861</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066146</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642073</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243799</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883449</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209181</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606378</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931375</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.902155104481</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6317139897748</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380663</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664438</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020634</v>
+        <v>728.2874363020582</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263753</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870135</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134871</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404144</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.357360784586</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>473.1433736436764</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284158</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094347</v>
+        <v>235.2541324151995</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981798</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426758</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066146</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642073</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243799</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883449</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209181</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606378</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931375</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.902155104481</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394588</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>86.11475690828513</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
